--- a/mapeamento.xlsx
+++ b/mapeamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Everton\Documents\previsao-receitas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EEBF10-11BF-43C4-A034-B3FC1361F997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB333EEA-5034-470F-87E9-F188A8F2ED88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1695" windowWidth="20730" windowHeight="11760" xr2:uid="{5E9A7A9C-C642-4321-81F8-F75BD05462CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E9A7A9C-C642-4321-81F8-F75BD05462CD}"/>
   </bookViews>
   <sheets>
     <sheet name="mapeamento" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1373">
   <si>
     <t>codigo</t>
   </si>
@@ -4152,6 +4152,9 @@
   </si>
   <si>
     <t>ano_3</t>
+  </si>
+  <si>
+    <t>ano_4</t>
   </si>
 </sst>
 </file>
@@ -4211,15 +4214,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5AF17572-924F-4C63-90EF-371F4DD17CB1}" name="mapeamento" displayName="mapeamento" ref="A1:F867" totalsRowShown="0">
-  <autoFilter ref="A1:F867" xr:uid="{5AF17572-924F-4C63-90EF-371F4DD17CB1}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5AF17572-924F-4C63-90EF-371F4DD17CB1}" name="mapeamento" displayName="mapeamento" ref="A1:G867" totalsRowShown="0">
+  <autoFilter ref="A1:G867" xr:uid="{5AF17572-924F-4C63-90EF-371F4DD17CB1}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A885F1A0-DBC3-49AF-B027-E3014EADE65F}" name="codigo"/>
     <tableColumn id="2" xr3:uid="{148B61BE-29DF-4D4C-A15F-76280CF52201}" name="descricao"/>
     <tableColumn id="9" xr3:uid="{CB535DF2-A7FD-467B-AE4F-70BB1BD1ECF6}" name="metodo"/>
     <tableColumn id="3" xr3:uid="{BBE22CB3-A952-4BD4-8B5F-05FD5E7EC399}" name="ano_1" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{D8D384BF-2A2A-4802-9E71-A80588D97544}" name="ano_2"/>
     <tableColumn id="5" xr3:uid="{D2ABBA90-2E18-41DE-A196-307DB31CC944}" name="ano_3"/>
+    <tableColumn id="6" xr3:uid="{4A42AB42-297F-4560-9283-4BCA064EA101}" name="ano_4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4533,20 +4537,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB84E20C-B68A-491B-B27C-2262E7BEE07B}">
-  <dimension ref="A1:F867"/>
+  <dimension ref="A1:G867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4565,8 +4569,11 @@
       <c r="F1" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>733</v>
       </c>
@@ -4574,7 +4581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>734</v>
       </c>
@@ -4582,7 +4589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>735</v>
       </c>
@@ -4590,7 +4597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>736</v>
       </c>
@@ -4598,7 +4605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>737</v>
       </c>
@@ -4606,7 +4613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>738</v>
       </c>
@@ -4614,7 +4621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>739</v>
       </c>
@@ -4622,7 +4629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>740</v>
       </c>
@@ -4630,7 +4637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>740</v>
       </c>
@@ -4638,7 +4645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>740</v>
       </c>
@@ -4646,7 +4653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>741</v>
       </c>
@@ -4665,8 +4672,11 @@
       <c r="F12" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>742</v>
       </c>
@@ -4674,7 +4684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>743</v>
       </c>
@@ -4682,7 +4692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>744</v>
       </c>
@@ -4701,8 +4711,11 @@
       <c r="F15" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>745</v>
       </c>
@@ -4710,7 +4723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>746</v>
       </c>
@@ -4718,7 +4731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>747</v>
       </c>
@@ -4726,7 +4739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>748</v>
       </c>
@@ -4734,7 +4747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>748</v>
       </c>
@@ -4753,8 +4766,11 @@
       <c r="F20" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>748</v>
       </c>
@@ -4762,7 +4778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>748</v>
       </c>
@@ -4770,7 +4786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>748</v>
       </c>
@@ -4789,8 +4805,11 @@
       <c r="F23" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>749</v>
       </c>
@@ -4798,7 +4817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>750</v>
       </c>
@@ -4806,7 +4825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>750</v>
       </c>
@@ -4814,7 +4833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>750</v>
       </c>
@@ -4822,7 +4841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>750</v>
       </c>
@@ -4830,7 +4849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>750</v>
       </c>
@@ -4838,7 +4857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>750</v>
       </c>
@@ -4846,7 +4865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>751</v>
       </c>
@@ -4854,7 +4873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>751</v>
       </c>
@@ -4862,7 +4881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>751</v>
       </c>
@@ -4870,7 +4889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>752</v>
       </c>
@@ -4878,7 +4897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>752</v>
       </c>
@@ -4897,8 +4916,11 @@
       <c r="F35" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>752</v>
       </c>
@@ -4906,7 +4928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>753</v>
       </c>
@@ -4914,7 +4936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>754</v>
       </c>
@@ -4922,7 +4944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>755</v>
       </c>
@@ -4930,7 +4952,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>755</v>
       </c>
@@ -4938,7 +4960,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>756</v>
       </c>
@@ -4946,7 +4968,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>757</v>
       </c>
@@ -4954,7 +4976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>758</v>
       </c>
@@ -4962,7 +4984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>759</v>
       </c>
@@ -4970,7 +4992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>760</v>
       </c>
@@ -4978,7 +5000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>761</v>
       </c>
@@ -4986,7 +5008,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>761</v>
       </c>
@@ -4994,7 +5016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>761</v>
       </c>
@@ -11556,12 +11578,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0862CB19-D9D2-46E8-8787-023E7FCB60B0}">
           <x14:formula1>
             <xm:f>metodos!$A$2:$A$1048576</xm:f>
